--- a/data/trans_bre/P34_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P34_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-7,97</t>
+          <t>-2,09</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-13,53</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-16,22</t>
+          <t>4,7</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-37,42%</t>
+          <t>2,93</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-46,3%</t>
+          <t>-10,39%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-55,74%</t>
+          <t>22,83%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>26,77%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>18,81%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-18,73; 2,63</t>
+          <t>-20,31; 14,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-27,78; -2,15</t>
+          <t>-14,66; 20,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-30,14; -3,78</t>
+          <t>-13,91; 21,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-64,82; 19,59</t>
+          <t>-14,12; 20,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-70,41; -8,58</t>
+          <t>-66,61; 142,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-77,08; -19,28</t>
+          <t>-50,69; 221,14</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-51,43; 255,78</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-55,76; 271,6</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-6,89</t>
+          <t>-8,86</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-5,99</t>
+          <t>-7,95</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-4,54</t>
+          <t>-9,02</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-24,14%</t>
+          <t>-13,98</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-21,74%</t>
+          <t>-32,09%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-16,68%</t>
+          <t>-31,1%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-33,93%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-48,97%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,84; 0,77</t>
+          <t>-18,09; 1,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,33; 1,84</t>
+          <t>-17,69; 0,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,76; 3,58</t>
+          <t>-18,98; 0,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-43,06; 2,55</t>
+          <t>-27,92; -4,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-44,92; 7,34</t>
+          <t>-55,5; 6,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-40,74; 16,38</t>
+          <t>-56,05; 3,84</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-57,19; 4,7</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-72,47; -19,5</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,89</t>
+          <t>7,48</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,7</t>
+          <t>7,03</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,5</t>
+          <t>7,69</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>62,8%</t>
+          <t>8,65</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>56,27%</t>
+          <t>66,31%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>61,51%</t>
+          <t>60,89%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>64,12%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>93,59%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 13,7</t>
+          <t>-0,57; 16,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 13,81</t>
+          <t>-1,42; 15,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,26; 14,35</t>
+          <t>-1,46; 16,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 181,78</t>
+          <t>-0,93; 16,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 160,72</t>
+          <t>-9,61; 228,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 161,91</t>
+          <t>-14,35; 221,33</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-12,43; 238,45</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-7,83; 310,13</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,6</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-3,28</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-3,2</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-12,13%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-14,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-13,96%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 2,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 1,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 2,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-31,68; 12,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-32,56; 8,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-33,82; 12,68</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-1,77</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,68</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-1,05</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-3,32</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-8,68%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-3,47%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-5,22%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-16,72%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-8,15; 4,13</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-7,12; 5,23</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-7,74; 4,99</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-11,48; 4,24</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-34,18; 23,85</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-31,1; 32,36</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-31,4; 31,57</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-44,07; 26,13</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P34_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P34_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-2,09</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,4</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>4,7</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>2,93</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-10,39%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>22,83%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>26,77%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>18,81%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-1.926135987438107</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.5887267364038495</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.7377989758675485</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>2.138405476350849</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.09703320276251091</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.02662242784643211</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.03702624922605621</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.133749554738384</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-20,31; 14,31</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-14,66; 20,89</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-13,91; 21,45</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-14,12; 20,48</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-66,61; 142,8</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-50,69; 221,14</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-51,43; 255,78</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-55,76; 271,6</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-19.21649577074775</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-20.11036374649334</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-19.35760122030449</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-15.29861509793981</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.6619997261101243</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.5835887491827632</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.6061625137326931</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.5666308601569866</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>14.13262720533138</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>17.76285199122404</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>17.82825129592266</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>20.28827173502891</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>1.270739738270375</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>1.614571389488593</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1.846043278604668</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>2.633301982637598</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-8,86</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-7,95</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-9,02</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-13,98</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-32,09%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-31,1%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-33,93%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-48,97%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-18,09; 1,46</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-17,69; 0,59</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-18,98; 0,94</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-27,92; -4,67</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-55,5; 6,77</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-56,05; 3,84</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-57,19; 4,7</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-72,47; -19,5</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-10.72679161248875</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-9.397889849043159</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-10.69073284371482</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-14.19705742060245</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.3745813654699711</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.351493232493278</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.3796939536251621</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.494847447136844</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>7,48</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>7,03</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>7,69</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>8,65</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>66,31%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>60,89%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>64,12%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>93,59%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-20.95101110974488</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-19.86273939514836</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-21.13177377622352</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-28.18103578559757</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.6000542771676447</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.5980595719537479</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.5981381353232781</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.725294217007367</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-0,57; 16,37</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,42; 15,75</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,46; 16,41</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-0,93; 16,83</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-9,61; 228,67</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-14,35; 221,33</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-12,43; 238,45</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-7,83; 310,13</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-1.04933147026121</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-0.9527796523680172</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>-0.112997479087707</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>-4.574385885517263</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>-0.0437681593043211</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>-0.04245420002762594</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.008668283147637902</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>-0.1917985856081381</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +827,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>7.931728124490715</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>7.098793358589026</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>8.21377056919656</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>9.089055992198038</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.7379455019811694</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.6049026375809493</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.6926590178300167</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.992232433779772</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.1167314375025514</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-2.00813820829267</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.6444183533287987</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.2664544039884568</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.0768329578163249</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.1484803973038268</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.08723899500532886</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.04221184167594259</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>17.11684337358306</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>15.99448565087267</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>17.456178619038</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>17.3780584322615</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>2.498694304046144</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>2.134299529500251</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>2.488028282986909</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>3.487310765268996</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-1,77</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,68</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-1,05</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-3,32</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-8,68%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-3,47%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-5,22%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-16,72%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-8,15; 4,13</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-7,12; 5,23</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-7,74; 4,99</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-11,48; 4,24</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-34,18; 23,85</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-31,1; 32,36</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-31,4; 31,57</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-44,07; 26,13</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-2.301106687577661</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-1.915491973477532</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-2.359819786694556</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-3.546988303733334</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.112108064318537</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.09292909257681811</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.1106344632406068</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.1765892681847551</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-8.571466637135945</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-8.547374361617356</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-9.405398135228332</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-11.79769647766933</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.3597181754531283</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.3513371479315441</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.3586559774394741</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.4524710611476513</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>3.401325480735826</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>4.208882938792116</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>4.022672101541691</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>3.797663503560579</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.193933862982451</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.2499089833901969</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.2436401209033902</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.2497665502562462</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
